--- a/Oregon/WaterAllocation/OR_POD_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Oregon/WaterAllocation/OR_POD_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Oregon\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4604476-DDC2-4532-90DB-D847D10ACA3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F242472-08F3-4CC0-8BC2-6B871CFE7BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="306">
   <si>
     <t>Name</t>
   </si>
@@ -765,9 +765,6 @@
     <t>Data Links:</t>
   </si>
   <si>
-    <t>OWRD_Water Rights</t>
-  </si>
-  <si>
     <t>Oregon Water Rights</t>
   </si>
   <si>
@@ -784,9 +781,6 @@
   </si>
   <si>
     <t>(blank)</t>
-  </si>
-  <si>
-    <t>OWRD</t>
   </si>
   <si>
     <t xml:space="preserve">Oregon Water Resources Department </t>
@@ -967,9 +961,6 @@
     <t>Not needed.</t>
   </si>
   <si>
-    <t>OWRD_Allocation All</t>
-  </si>
-  <si>
     <t>GR: groundwater registrations
 PC: power claim
 SW: surface water registrations
@@ -1039,6 +1030,15 @@
   </si>
   <si>
     <t>duty</t>
+  </si>
+  <si>
+    <t>ORwr_M1</t>
+  </si>
+  <si>
+    <t>ORwr_V1</t>
+  </si>
+  <si>
+    <t>ORwr_O1</t>
   </si>
 </sst>
 </file>
@@ -1798,7 +1798,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2069,6 +2069,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2444,7 +2447,7 @@
         <v>238</v>
       </c>
       <c r="B1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2452,7 +2455,7 @@
         <v>239</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2460,17 +2463,17 @@
         <v>240</v>
       </c>
       <c r="B6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2483,7 +2486,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2586,7 +2589,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>38</v>
@@ -2618,7 +2621,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>38</v>
@@ -2650,7 +2653,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>38</v>
@@ -2682,7 +2685,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>38</v>
@@ -2714,7 +2717,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>38</v>
@@ -2746,7 +2749,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>38</v>
@@ -2776,7 +2779,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>38</v>
@@ -2808,7 +2811,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>38</v>
@@ -2840,7 +2843,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>38</v>
@@ -2872,7 +2875,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2969,7 +2972,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="46"/>
@@ -3249,7 +3252,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3352,7 +3355,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="46"/>
@@ -3380,7 +3383,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
@@ -3408,7 +3411,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
@@ -3436,7 +3439,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
@@ -3464,7 +3467,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="21"/>
@@ -3492,7 +3495,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
@@ -3520,7 +3523,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
@@ -3548,7 +3551,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="79" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
@@ -3576,7 +3579,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
@@ -3732,7 +3735,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>38</v>
@@ -3762,7 +3765,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>38</v>
@@ -3792,7 +3795,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="76" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>38</v>
@@ -3852,13 +3855,13 @@
         <v>38</v>
       </c>
       <c r="E8" s="76" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>38</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="17" t="s">
@@ -3882,7 +3885,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="76" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>38</v>
@@ -3912,13 +3915,13 @@
         <v>20</v>
       </c>
       <c r="E10" s="77" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F10" s="59" t="s">
         <v>38</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="17" t="s">
@@ -3949,7 +3952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -4049,7 +4052,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>38</v>
@@ -4079,7 +4082,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>38</v>
@@ -4109,7 +4112,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="76" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F6" s="26" t="s">
         <v>38</v>
@@ -4139,7 +4142,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>38</v>
@@ -4169,7 +4172,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F8" s="26" t="s">
         <v>38</v>
@@ -4199,7 +4202,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F9" s="26" t="s">
         <v>38</v>
@@ -4227,7 +4230,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F10" s="26" t="s">
         <v>38</v>
@@ -4257,7 +4260,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F11" s="26" t="s">
         <v>38</v>
@@ -4287,7 +4290,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F12" s="26" t="s">
         <v>38</v>
@@ -4317,13 +4320,13 @@
         <v>38</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F13" s="26" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="18" t="s">
@@ -4347,13 +4350,13 @@
         <v>38</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F14" s="26" t="s">
         <v>38</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="18">
@@ -4377,7 +4380,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>38</v>
@@ -4407,7 +4410,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F16" s="26" t="s">
         <v>38</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="17" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -4437,7 +4440,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F17" s="36" t="s">
         <v>38</v>
@@ -4447,7 +4450,7 @@
       </c>
       <c r="H17" s="83"/>
       <c r="I17" s="84" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J17" s="83"/>
     </row>
@@ -4465,16 +4468,16 @@
         <v>38</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F18" s="36" t="s">
         <v>38</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H18" s="80" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I18" s="68" t="s">
         <v>120</v>
@@ -4501,7 +4504,7 @@
       </c>
       <c r="F19" s="26"/>
       <c r="G19" s="21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" s="18">
@@ -4525,7 +4528,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F20" s="26" t="s">
         <v>38</v>
@@ -4555,13 +4558,13 @@
         <v>20</v>
       </c>
       <c r="E21" s="60" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F21" s="26" t="s">
         <v>38</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="18" t="s">
@@ -4585,7 +4588,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F22" s="26" t="s">
         <v>38</v>
@@ -4615,7 +4618,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F23" s="26" t="s">
         <v>38</v>
@@ -4644,8 +4647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4902,7 +4905,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="F9" s="36" t="s">
         <v>38</v>
@@ -4934,7 +4937,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="F10" s="26" t="s">
         <v>38</v>
@@ -4966,7 +4969,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F11" s="26" t="s">
         <v>38</v>
@@ -4998,7 +5001,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="61" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="F12" s="26" t="s">
         <v>38</v>
@@ -5030,7 +5033,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F13" s="45" t="s">
         <v>38</v>
@@ -5062,7 +5065,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F14" s="36" t="s">
         <v>38</v>
@@ -5094,7 +5097,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F15" s="36" t="s">
         <v>38</v>
@@ -5126,7 +5129,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F16" s="36" t="s">
         <v>38</v>
@@ -5158,7 +5161,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="76" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F17" s="36" t="s">
         <v>38</v>
@@ -5190,7 +5193,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F18" s="36" t="s">
         <v>38</v>
@@ -5222,7 +5225,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F19" s="36" t="s">
         <v>38</v>
@@ -5260,7 +5263,7 @@
         <v>38</v>
       </c>
       <c r="G20" s="50" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H20" s="70" t="s">
         <v>38</v>
@@ -5286,7 +5289,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F21" s="36" t="s">
         <v>38</v>
@@ -5306,7 +5309,7 @@
     </row>
     <row r="22" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="85" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B22" s="54" t="s">
         <v>69</v>
@@ -5324,7 +5327,7 @@
         <v>38</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H22" s="86" t="s">
         <v>38</v>
@@ -5350,7 +5353,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F23" s="36" t="s">
         <v>38</v>
@@ -5388,7 +5391,7 @@
         <v>38</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H24" s="70" t="s">
         <v>38</v>
@@ -5414,11 +5417,11 @@
         <v>38</v>
       </c>
       <c r="E25" s="63" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F25" s="36"/>
       <c r="G25" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H25" s="70" t="s">
         <v>38</v>
@@ -5450,7 +5453,7 @@
         <v>38</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H26" s="70" t="s">
         <v>38</v>
@@ -5476,7 +5479,7 @@
         <v>20</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F27" s="36" t="s">
         <v>38</v>
@@ -5508,13 +5511,13 @@
         <v>38</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F28" s="36" t="s">
         <v>38</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H28" s="70" t="s">
         <v>38</v>
@@ -5540,13 +5543,13 @@
         <v>38</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F29" s="36" t="s">
         <v>38</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H29" s="70" t="s">
         <v>38</v>
@@ -5572,13 +5575,13 @@
         <v>20</v>
       </c>
       <c r="E30" s="65" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F30" s="36" t="s">
         <v>38</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H30" s="70" t="s">
         <v>38</v>
@@ -5592,7 +5595,7 @@
     </row>
     <row r="31" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="85" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B31" s="54" t="s">
         <v>69</v>
@@ -5610,7 +5613,7 @@
         <v>38</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H31" s="86" t="s">
         <v>38</v>
@@ -5642,7 +5645,7 @@
         <v>38</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H32" s="70" t="s">
         <v>38</v>
@@ -5668,7 +5671,7 @@
         <v>38</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F33" s="36" t="s">
         <v>38</v>
@@ -5700,7 +5703,7 @@
         <v>20</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F34" s="36" t="s">
         <v>38</v>
@@ -5732,7 +5735,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F35" s="36" t="s">
         <v>38</v>
@@ -5763,8 +5766,8 @@
       <c r="D36" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="36" t="s">
-        <v>247</v>
+      <c r="E36" s="92">
+        <v>44649</v>
       </c>
       <c r="F36" s="36" t="s">
         <v>38</v>
@@ -5796,7 +5799,7 @@
         <v>38</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F37" s="36" t="s">
         <v>38</v>
@@ -5816,10 +5819,10 @@
     </row>
     <row r="38" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="85" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B38" s="54" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C38" s="55" t="s">
         <v>18</v>
@@ -5854,7 +5857,7 @@
         <v>38</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F39" s="36" t="s">
         <v>38</v>
@@ -5886,7 +5889,7 @@
         <v>38</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F40" s="36" t="s">
         <v>38</v>
@@ -5916,7 +5919,7 @@
         <v>20</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F41" s="36" t="s">
         <v>38</v>
@@ -5948,7 +5951,7 @@
         <v>38</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F42" s="36" t="s">
         <v>38</v>
@@ -5968,7 +5971,7 @@
     </row>
     <row r="43" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>34</v>
@@ -5980,7 +5983,7 @@
         <v>20</v>
       </c>
       <c r="E43" s="91" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F43" s="36" t="s">
         <v>38</v>
@@ -5992,10 +5995,10 @@
         <v>38</v>
       </c>
       <c r="I43" s="70" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J43" s="66" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
@@ -6018,7 +6021,7 @@
         <v>38</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F44" s="36" t="s">
         <v>38</v>
@@ -6050,7 +6053,7 @@
         <v>20</v>
       </c>
       <c r="E45" s="36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F45" s="36" t="s">
         <v>38</v>
@@ -6082,7 +6085,7 @@
         <v>20</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F46" s="36" t="s">
         <v>38</v>
@@ -6120,7 +6123,7 @@
         <v>38</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H47" s="70" t="s">
         <v>38</v>
@@ -6154,7 +6157,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="81" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B1" s="64"/>
     </row>

--- a/Oregon/WaterAllocation/OR_POD_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Oregon/WaterAllocation/OR_POD_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Oregon\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F242472-08F3-4CC0-8BC2-6B871CFE7BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2239D6-87F2-4F55-BC55-CFB7A4283140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="308">
   <si>
     <t>Name</t>
   </si>
@@ -487,9 +487,6 @@
   </si>
   <si>
     <t>Water Administration for the State of Colorado</t>
-  </si>
-  <si>
-    <t>PrimaryUseCategory</t>
   </si>
   <si>
     <t>BeneficialUseCategory</t>
@@ -1039,6 +1036,15 @@
   </si>
   <si>
     <t>ORwr_O1</t>
+  </si>
+  <si>
+    <t>AllocationUUID</t>
+  </si>
+  <si>
+    <t>ORwr_WR + counter</t>
+  </si>
+  <si>
+    <t>PrimaryBeneficialUseCategory</t>
   </si>
 </sst>
 </file>
@@ -1798,7 +1804,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2072,6 +2078,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2444,36 +2453,36 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="75" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="75" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="75" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2528,10 +2537,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -2572,7 +2581,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2589,7 +2598,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>38</v>
@@ -2604,7 +2613,7 @@
         <v>139</v>
       </c>
       <c r="J4" s="66" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -2621,7 +2630,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>38</v>
@@ -2636,7 +2645,7 @@
         <v>108</v>
       </c>
       <c r="J5" s="66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2653,7 +2662,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>38</v>
@@ -2668,7 +2677,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2685,7 +2694,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>38</v>
@@ -2700,7 +2709,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -2717,7 +2726,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>38</v>
@@ -2729,10 +2738,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J8" s="66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2749,7 +2758,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>38</v>
@@ -2762,7 +2771,7 @@
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="66" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2779,7 +2788,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>38</v>
@@ -2794,7 +2803,7 @@
         <v>143</v>
       </c>
       <c r="J10" s="66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -2811,7 +2820,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>38</v>
@@ -2826,7 +2835,7 @@
         <v>107</v>
       </c>
       <c r="J11" s="66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2843,7 +2852,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>38</v>
@@ -2858,7 +2867,7 @@
         <v>109</v>
       </c>
       <c r="J12" s="66" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2917,10 +2926,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -2955,7 +2964,7 @@
         <v>16</v>
       </c>
       <c r="J3" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2972,7 +2981,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="46"/>
@@ -2983,7 +2992,7 @@
         <v>140</v>
       </c>
       <c r="J4" s="66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3011,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3039,7 +3048,7 @@
         <v>111</v>
       </c>
       <c r="J6" s="66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3067,7 +3076,7 @@
         <v>110</v>
       </c>
       <c r="J7" s="66" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3095,7 +3104,7 @@
         <v>113</v>
       </c>
       <c r="J8" s="66" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3123,7 +3132,7 @@
         <v>114</v>
       </c>
       <c r="J9" s="66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3151,7 +3160,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="66" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3179,7 +3188,7 @@
         <v>112</v>
       </c>
       <c r="J11" s="66" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3207,7 +3216,7 @@
         <v>144</v>
       </c>
       <c r="J12" s="66" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -3235,7 +3244,7 @@
         <v>115</v>
       </c>
       <c r="J13" s="66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3294,10 +3303,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3338,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3355,7 +3364,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="46"/>
@@ -3366,7 +3375,7 @@
         <v>126</v>
       </c>
       <c r="J4" s="66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -3383,7 +3392,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
@@ -3394,7 +3403,7 @@
         <v>130</v>
       </c>
       <c r="J5" s="66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3411,7 +3420,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
@@ -3422,7 +3431,7 @@
         <v>129</v>
       </c>
       <c r="J6" s="66" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.3">
@@ -3439,7 +3448,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
@@ -3450,7 +3459,7 @@
         <v>127</v>
       </c>
       <c r="J7" s="66" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -3467,7 +3476,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="21"/>
@@ -3478,7 +3487,7 @@
         <v>147</v>
       </c>
       <c r="J8" s="66" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3495,7 +3504,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
@@ -3506,7 +3515,7 @@
         <v>128</v>
       </c>
       <c r="J9" s="66" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -3523,7 +3532,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
@@ -3534,7 +3543,7 @@
         <v>148</v>
       </c>
       <c r="J10" s="66" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3551,7 +3560,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="79" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
@@ -3562,7 +3571,7 @@
         <v>127</v>
       </c>
       <c r="J11" s="66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3579,7 +3588,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
@@ -3590,7 +3599,7 @@
         <v>131</v>
       </c>
       <c r="J12" s="66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -3676,10 +3685,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3718,7 +3727,7 @@
         <v>34658</v>
       </c>
       <c r="J3" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3735,7 +3744,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>38</v>
@@ -3748,7 +3757,7 @@
         <v>116</v>
       </c>
       <c r="J4" s="66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3765,7 +3774,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>38</v>
@@ -3778,7 +3787,7 @@
         <v>38</v>
       </c>
       <c r="J5" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3795,7 +3804,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="76" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>38</v>
@@ -3808,7 +3817,7 @@
         <v>38</v>
       </c>
       <c r="J6" s="66" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3838,7 +3847,7 @@
         <v>118</v>
       </c>
       <c r="J7" s="66" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3855,20 +3864,20 @@
         <v>38</v>
       </c>
       <c r="E8" s="76" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>38</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J8" s="66" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3885,7 +3894,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="76" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>38</v>
@@ -3898,7 +3907,7 @@
         <v>17839</v>
       </c>
       <c r="J9" s="66" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.3">
@@ -3915,20 +3924,20 @@
         <v>20</v>
       </c>
       <c r="E10" s="77" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F10" s="59" t="s">
         <v>38</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="17" t="s">
         <v>108</v>
       </c>
       <c r="J10" s="66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -3995,10 +4004,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4037,7 +4046,7 @@
         <v>39035</v>
       </c>
       <c r="J3" s="66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4052,7 +4061,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>38</v>
@@ -4065,7 +4074,7 @@
         <v>119</v>
       </c>
       <c r="J4" s="66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4082,7 +4091,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>38</v>
@@ -4095,7 +4104,7 @@
         <v>117</v>
       </c>
       <c r="J5" s="66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4112,7 +4121,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="76" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F6" s="26" t="s">
         <v>38</v>
@@ -4125,7 +4134,7 @@
         <v>124</v>
       </c>
       <c r="J6" s="66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4142,7 +4151,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>38</v>
@@ -4155,7 +4164,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4172,7 +4181,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F8" s="26" t="s">
         <v>38</v>
@@ -4185,7 +4194,7 @@
         <v>125</v>
       </c>
       <c r="J8" s="66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4202,7 +4211,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F9" s="26" t="s">
         <v>38</v>
@@ -4213,7 +4222,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="18"/>
       <c r="J9" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -4230,7 +4239,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F10" s="26" t="s">
         <v>38</v>
@@ -4243,7 +4252,7 @@
         <v>38</v>
       </c>
       <c r="J10" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4260,7 +4269,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F11" s="26" t="s">
         <v>38</v>
@@ -4273,7 +4282,7 @@
         <v>38</v>
       </c>
       <c r="J11" s="67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4290,7 +4299,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F12" s="26" t="s">
         <v>38</v>
@@ -4303,7 +4312,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4320,20 +4329,20 @@
         <v>38</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F13" s="26" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="18" t="s">
         <v>122</v>
       </c>
       <c r="J13" s="66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4350,20 +4359,20 @@
         <v>38</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F14" s="26" t="s">
         <v>38</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="18">
         <v>-1067.700435</v>
       </c>
       <c r="J14" s="66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4380,7 +4389,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>38</v>
@@ -4393,7 +4402,7 @@
         <v>38</v>
       </c>
       <c r="J15" s="66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4410,7 +4419,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F16" s="26" t="s">
         <v>38</v>
@@ -4423,12 +4432,12 @@
         <v>38</v>
       </c>
       <c r="J16" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -4440,7 +4449,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F17" s="36" t="s">
         <v>38</v>
@@ -4450,7 +4459,7 @@
       </c>
       <c r="H17" s="83"/>
       <c r="I17" s="84" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J17" s="83"/>
     </row>
@@ -4468,22 +4477,22 @@
         <v>38</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F18" s="36" t="s">
         <v>38</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H18" s="80" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I18" s="68" t="s">
         <v>120</v>
       </c>
       <c r="J18" s="66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4504,14 +4513,14 @@
       </c>
       <c r="F19" s="26"/>
       <c r="G19" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" s="18">
         <v>3703994</v>
       </c>
       <c r="J19" s="66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4528,7 +4537,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F20" s="26" t="s">
         <v>38</v>
@@ -4541,7 +4550,7 @@
         <v>123</v>
       </c>
       <c r="J20" s="67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="168" x14ac:dyDescent="0.3">
@@ -4558,20 +4567,20 @@
         <v>20</v>
       </c>
       <c r="E21" s="60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F21" s="26" t="s">
         <v>38</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="18" t="s">
         <v>121</v>
       </c>
       <c r="J21" s="66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4588,7 +4597,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F22" s="26" t="s">
         <v>38</v>
@@ -4601,7 +4610,7 @@
         <v>141</v>
       </c>
       <c r="J22" s="66" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -4618,7 +4627,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F23" s="26" t="s">
         <v>38</v>
@@ -4631,7 +4640,7 @@
         <v>38</v>
       </c>
       <c r="J23" s="67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4645,10 +4654,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4690,10 +4699,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4728,7 +4737,7 @@
         <v>50004</v>
       </c>
       <c r="J3" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
@@ -4760,7 +4769,7 @@
         <v>43</v>
       </c>
       <c r="J4" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
@@ -4792,7 +4801,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
@@ -4824,7 +4833,7 @@
         <v>39035</v>
       </c>
       <c r="J6" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
@@ -4856,7 +4865,7 @@
         <v>63</v>
       </c>
       <c r="J7" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
@@ -4888,76 +4897,66 @@
         <v>371091</v>
       </c>
       <c r="J8" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="53" t="s">
+        <v>305</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="93" t="s">
+        <v>306</v>
+      </c>
+      <c r="F9" s="36"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="66"/>
+    </row>
+    <row r="10" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B10" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="60" t="s">
-        <v>303</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="66" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="57" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>305</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="50" t="s">
         <v>38</v>
       </c>
       <c r="H10" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="70" t="s">
+      <c r="I10" s="69" t="s">
         <v>38</v>
       </c>
       <c r="J10" s="66" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>67</v>
@@ -4968,8 +4967,8 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>293</v>
+      <c r="E11" s="60" t="s">
+        <v>304</v>
       </c>
       <c r="F11" s="26" t="s">
         <v>38</v>
@@ -4984,12 +4983,12 @@
         <v>38</v>
       </c>
       <c r="J11" s="66" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>67</v>
@@ -5000,8 +4999,8 @@
       <c r="D12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="61" t="s">
-        <v>304</v>
+      <c r="E12" s="18" t="s">
+        <v>292</v>
       </c>
       <c r="F12" s="26" t="s">
         <v>38</v>
@@ -5016,108 +5015,108 @@
         <v>38</v>
       </c>
       <c r="J12" s="66" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="66" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B14" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>294</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="66" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="54" t="s">
+      <c r="C14" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="66" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C15" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D15" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="68">
+      <c r="E15" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="68">
         <v>5363</v>
       </c>
-      <c r="J14" s="66" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J15" s="67" t="s">
-        <v>160</v>
+      <c r="J15" s="66" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>68</v>
@@ -5129,7 +5128,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F16" s="36" t="s">
         <v>38</v>
@@ -5144,56 +5143,56 @@
         <v>133</v>
       </c>
       <c r="J16" s="67" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="39" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A17" s="53" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J17" s="67" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="39" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B18" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C18" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D18" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="76" t="s">
-        <v>256</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="68" t="s">
-        <v>156</v>
-      </c>
-      <c r="J17" s="66" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>246</v>
+      <c r="E18" s="76" t="s">
+        <v>255</v>
       </c>
       <c r="F18" s="36" t="s">
         <v>38</v>
@@ -5204,19 +5203,19 @@
       <c r="H18" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="J18" s="67" t="s">
-        <v>160</v>
+      <c r="I18" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" s="66" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>18</v>
@@ -5225,7 +5224,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F19" s="36" t="s">
         <v>38</v>
@@ -5237,18 +5236,18 @@
         <v>38</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="J19" s="66" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="J19" s="67" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>18</v>
@@ -5257,281 +5256,281 @@
         <v>38</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>38</v>
+        <v>245</v>
       </c>
       <c r="F20" s="36" t="s">
         <v>38</v>
       </c>
       <c r="G20" s="50" t="s">
-        <v>302</v>
+        <v>38</v>
       </c>
       <c r="H20" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="67" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I20" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" s="66" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="H21" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="67" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="18">
+      <c r="E22" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="18">
         <v>5200</v>
       </c>
-      <c r="J21" s="66" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="85" t="s">
-        <v>295</v>
-      </c>
-      <c r="B22" s="54" t="s">
+      <c r="J22" s="66" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="85" t="s">
+        <v>294</v>
+      </c>
+      <c r="B23" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C23" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="H22" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="87">
+      <c r="D23" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="H23" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="87">
         <v>1</v>
       </c>
-      <c r="J22" s="88" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="J23" s="88" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="J23" s="66" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>38</v>
+        <v>245</v>
       </c>
       <c r="F24" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="21" t="s">
-        <v>263</v>
+      <c r="G24" s="50" t="s">
+        <v>38</v>
       </c>
       <c r="H24" s="70" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J24" s="66" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="63" t="s">
-        <v>265</v>
-      </c>
-      <c r="F25" s="36"/>
+      <c r="E25" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>38</v>
+      </c>
       <c r="G25" s="21" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="H25" s="70" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J25" s="66" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="F26" s="36"/>
+      <c r="G26" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="H26" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J26" s="66" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="H26" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="J26" s="66" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="39" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>18</v>
+      <c r="C27" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="26" t="s">
-        <v>246</v>
+      <c r="E27" s="36" t="s">
+        <v>38</v>
       </c>
       <c r="F27" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="50" t="s">
-        <v>38</v>
+      <c r="G27" s="21" t="s">
+        <v>265</v>
       </c>
       <c r="H27" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="70" t="s">
-        <v>38</v>
+      <c r="I27" s="18" t="s">
+        <v>156</v>
       </c>
       <c r="J27" s="66" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="39" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="F28" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="21" t="s">
-        <v>269</v>
+      <c r="G28" s="50" t="s">
+        <v>38</v>
       </c>
       <c r="H28" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="71">
-        <v>44196</v>
+      <c r="I28" s="70" t="s">
+        <v>38</v>
       </c>
       <c r="J28" s="66" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>106</v>
@@ -5543,167 +5542,167 @@
         <v>38</v>
       </c>
       <c r="E29" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="F29" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>267</v>
-      </c>
       <c r="H29" s="70" t="s">
         <v>38</v>
       </c>
       <c r="I29" s="71">
-        <v>43831</v>
+        <v>44196</v>
       </c>
       <c r="J29" s="66" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="61.2" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="H30" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="71">
+        <v>43831</v>
+      </c>
+      <c r="J30" s="66" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="65" t="s">
-        <v>282</v>
-      </c>
-      <c r="F30" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="H30" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="18" t="s">
+      <c r="E31" s="65" t="s">
+        <v>281</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="H31" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J30" s="67" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="85" t="s">
-        <v>296</v>
-      </c>
-      <c r="B31" s="54" t="s">
+      <c r="J31" s="67" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="85" t="s">
+        <v>295</v>
+      </c>
+      <c r="B32" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C32" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="H31" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="87">
+      <c r="D32" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="H32" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="87">
         <v>0</v>
       </c>
-      <c r="J31" s="88" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="H32" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="J32" s="66" t="s">
-        <v>205</v>
+      <c r="J32" s="88" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>18</v>
+      <c r="C33" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="36" t="s">
-        <v>246</v>
+      <c r="E33" s="65" t="s">
+        <v>38</v>
       </c>
       <c r="F33" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="G33" s="50" t="s">
-        <v>38</v>
+      <c r="G33" s="21" t="s">
+        <v>261</v>
       </c>
       <c r="H33" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="I33" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J33" s="67" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I33" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="66" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F34" s="36" t="s">
         <v>38</v>
@@ -5717,13 +5716,13 @@
       <c r="I34" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="66" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" s="53" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="J34" s="67" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>15</v>
@@ -5735,7 +5734,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F35" s="36" t="s">
         <v>38</v>
@@ -5750,134 +5749,134 @@
         <v>133</v>
       </c>
       <c r="J35" s="66" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="B36" s="54" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="53" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J36" s="66" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="92">
+      <c r="C37" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="92">
         <v>44649</v>
       </c>
-      <c r="F36" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="72">
+      <c r="F37" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="72">
         <v>43874</v>
       </c>
-      <c r="J36" s="66" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="J37" s="66" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B38" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C38" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="F37" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="73">
+      <c r="D38" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="73">
         <v>33187</v>
       </c>
-      <c r="J37" s="67" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="85" t="s">
+      <c r="J38" s="67" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="85" t="s">
+        <v>296</v>
+      </c>
+      <c r="B39" s="54" t="s">
         <v>297</v>
       </c>
-      <c r="B38" s="54" t="s">
-        <v>298</v>
-      </c>
-      <c r="C38" s="55" t="s">
+      <c r="C39" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="36">
+      <c r="D39" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="36">
         <v>0</v>
       </c>
-      <c r="F38" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="86"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="90"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="36" t="s">
-        <v>246</v>
-      </c>
       <c r="F39" s="36" t="s">
         <v>38</v>
       </c>
       <c r="G39" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I39" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="J39" s="66" t="s">
-        <v>207</v>
-      </c>
+      <c r="H39" s="86"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="90"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>69</v>
@@ -5889,7 +5888,7 @@
         <v>38</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F40" s="36" t="s">
         <v>38</v>
@@ -5897,29 +5896,31 @@
       <c r="G40" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H40" s="78"/>
+      <c r="H40" s="70" t="s">
+        <v>38</v>
+      </c>
       <c r="I40" s="70" t="s">
         <v>38</v>
       </c>
       <c r="J40" s="66" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F41" s="36" t="s">
         <v>38</v>
@@ -5927,31 +5928,29 @@
       <c r="G41" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="18" t="s">
-        <v>133</v>
+      <c r="H41" s="78"/>
+      <c r="I41" s="70" t="s">
+        <v>38</v>
       </c>
       <c r="J41" s="66" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F42" s="36" t="s">
         <v>38</v>
@@ -5962,16 +5961,16 @@
       <c r="H42" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="I42" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="J42" s="67" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I42" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J42" s="66" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>283</v>
+        <v>96</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>34</v>
@@ -5979,11 +5978,11 @@
       <c r="C43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="91" t="s">
-        <v>299</v>
+      <c r="D43" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="36" t="s">
+        <v>245</v>
       </c>
       <c r="F43" s="36" t="s">
         <v>38</v>
@@ -5991,37 +5990,31 @@
       <c r="G43" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H43" s="82" t="s">
+      <c r="H43" s="70" t="s">
         <v>38</v>
       </c>
       <c r="I43" s="70" t="s">
-        <v>284</v>
-      </c>
-      <c r="J43" s="66" t="s">
-        <v>285</v>
-      </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="J43" s="67" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>89</v>
+        <v>282</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="36" t="s">
-        <v>246</v>
+      <c r="D44" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="91" t="s">
+        <v>298</v>
       </c>
       <c r="F44" s="36" t="s">
         <v>38</v>
@@ -6029,115 +6022,153 @@
       <c r="G44" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H44" s="70" t="s">
+      <c r="H44" s="82" t="s">
         <v>38</v>
       </c>
       <c r="I44" s="70" t="s">
-        <v>38</v>
+        <v>283</v>
       </c>
       <c r="J44" s="66" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="66" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="F45" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="18" t="s">
+      <c r="E46" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J45" s="67" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="B46" s="54" t="s">
+      <c r="J46" s="67" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="53" t="s">
+        <v>307</v>
+      </c>
+      <c r="B47" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="55" t="s">
+      <c r="C47" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="57" t="s">
+      <c r="D47" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="F46" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="68" t="s">
+      <c r="E47" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="J46" s="66" t="s">
+      <c r="J47" s="66" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="H48" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J48" s="66" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F47" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="H47" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I47" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J47" s="66" t="s">
-        <v>211</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:J47">
-    <sortCondition ref="A14:A47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:J48">
+    <sortCondition ref="A15:A48"/>
   </sortState>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6157,7 +6188,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="81" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B1" s="64"/>
     </row>

--- a/Oregon/WaterAllocation/OR_POD_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Oregon/WaterAllocation/OR_POD_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Oregon\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2239D6-87F2-4F55-BC55-CFB7A4283140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7924F0-A3F2-49E4-84CF-00D7DE7E2C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="1" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="309">
   <si>
     <t>Name</t>
   </si>
@@ -762,19 +762,10 @@
     <t>Data Links:</t>
   </si>
   <si>
-    <t>Oregon Water Rights</t>
-  </si>
-  <si>
-    <t>Water Rights</t>
-  </si>
-  <si>
     <t>https://www.oregon.gov/OWRD/access_Data/Pages/Data.aspx</t>
   </si>
   <si>
     <t>Surface/Ground/Storage</t>
-  </si>
-  <si>
-    <t>Adjudicated</t>
   </si>
   <si>
     <t>(blank)</t>
@@ -1046,6 +1037,18 @@
   <si>
     <t>PrimaryBeneficialUseCategory</t>
   </si>
+  <si>
+    <t>This product is for informational purposes and may not have been prepared for, or be suitable for legal, engineering, or surveying purposes. Users of this information should review or consult the primary data and information sources to ascertain the usability of the information.</t>
+  </si>
+  <si>
+    <t>Oregon Water Rights Method</t>
+  </si>
+  <si>
+    <t>https://arcgis.wrd.state.or.us/data/OWRD_WR_GIS_procedures.pdf</t>
+  </si>
+  <si>
+    <t>Legal Processes</t>
+  </si>
 </sst>
 </file>
 
@@ -1054,7 +1057,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1287,6 +1290,14 @@
     <font>
       <sz val="8"/>
       <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1804,7 +1815,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1860,19 +1871,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1977,12 +1982,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2031,11 +2030,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2043,7 +2039,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2080,7 +2076,10 @@
     <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2447,42 +2446,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="71" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="71" t="s">
         <v>237</v>
       </c>
       <c r="B1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="71" t="s">
         <v>238</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="71" t="s">
         <v>239</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -2494,8 +2493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E12" sqref="E9:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2565,13 +2564,13 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="35" t="s">
+      <c r="E3" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="33" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -2580,7 +2579,7 @@
       <c r="I3" s="17">
         <v>11</v>
       </c>
-      <c r="J3" s="66" t="s">
+      <c r="J3" s="62" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2588,22 +2587,22 @@
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="62" t="s">
-        <v>302</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="46" t="s">
+      <c r="C4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>299</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="44" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -2612,7 +2611,7 @@
       <c r="I4" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="J4" s="66" t="s">
+      <c r="J4" s="62" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2630,12 +2629,12 @@
         <v>20</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -2644,7 +2643,7 @@
       <c r="I5" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="62" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2661,22 +2660,22 @@
       <c r="D6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="21" t="s">
+      <c r="E6" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="74">
+      <c r="I6" s="70">
         <v>0.5</v>
       </c>
-      <c r="J6" s="66" t="s">
+      <c r="J6" s="62" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2693,22 +2692,22 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="21" t="s">
+      <c r="E7" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="66" t="s">
+      <c r="I7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="62" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2725,22 +2724,22 @@
       <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="21" t="s">
+      <c r="E8" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="J8" s="66" t="s">
+      <c r="J8" s="62" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2757,20 +2756,20 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="21" t="s">
+      <c r="E9" s="88" t="s">
+        <v>305</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="18"/>
-      <c r="J9" s="66" t="s">
+      <c r="J9" s="62" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2788,12 +2787,12 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H10" s="9" t="s">
@@ -2802,7 +2801,7 @@
       <c r="I10" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="J10" s="66" t="s">
+      <c r="J10" s="62" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2819,13 +2818,13 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="21" t="s">
+      <c r="E11" s="89" t="s">
+        <v>307</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H11" s="9" t="s">
@@ -2834,7 +2833,7 @@
       <c r="I11" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="66" t="s">
+      <c r="J11" s="62" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2851,13 +2850,13 @@
       <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="21" t="s">
+      <c r="E12" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H12" s="9" t="s">
@@ -2866,7 +2865,7 @@
       <c r="I12" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="J12" s="66" t="s">
+      <c r="J12" s="62" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2874,8 +2873,11 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:A26">
     <sortCondition ref="A18:A26"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{71F0EC10-9D7E-4D82-9610-35DD4A1449D5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2954,16 +2956,16 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I3" s="17">
         <v>16</v>
       </c>
-      <c r="J3" s="66" t="s">
+      <c r="J3" s="62" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2971,27 +2973,27 @@
       <c r="A4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>303</v>
-      </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
+      <c r="C4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
       <c r="H4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="J4" s="66" t="s">
+      <c r="J4" s="62" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3011,15 +3013,15 @@
       <c r="E5" s="17">
         <v>1</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="17">
         <v>1</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="62" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3039,15 +3041,15 @@
       <c r="E6" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="J6" s="66" t="s">
+      <c r="J6" s="62" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3067,15 +3069,15 @@
       <c r="E7" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="66" t="s">
+      <c r="J7" s="62" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3095,15 +3097,15 @@
       <c r="E8" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="J8" s="66" t="s">
+      <c r="J8" s="62" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3123,15 +3125,15 @@
       <c r="E9" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="66" t="s">
+      <c r="J9" s="62" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3151,15 +3153,15 @@
       <c r="E10" s="17">
         <v>10</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="17">
         <v>10</v>
       </c>
-      <c r="J10" s="66" t="s">
+      <c r="J10" s="62" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3179,15 +3181,15 @@
       <c r="E11" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="66" t="s">
+      <c r="J11" s="62" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3207,15 +3209,15 @@
       <c r="E12" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="J12" s="66" t="s">
+      <c r="J12" s="62" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3235,15 +3237,15 @@
       <c r="E13" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="66" t="s">
+      <c r="J13" s="62" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3331,13 +3333,13 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="32" t="s">
+      <c r="E3" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="30" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -3346,7 +3348,7 @@
       <c r="I3" s="18">
         <v>1</v>
       </c>
-      <c r="J3" s="66" t="s">
+      <c r="J3" s="62" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3354,27 +3356,27 @@
       <c r="A4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>304</v>
-      </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
+      <c r="C4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
       <c r="H4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="66" t="s">
+      <c r="J4" s="62" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3392,17 +3394,17 @@
         <v>38</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
+        <v>246</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="62" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3420,17 +3422,17 @@
         <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+        <v>245</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="J6" s="66" t="s">
+      <c r="J6" s="62" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3448,17 +3450,17 @@
         <v>38</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
+        <v>247</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J7" s="66" t="s">
+      <c r="J7" s="62" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3476,17 +3478,17 @@
         <v>38</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
+        <v>243</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="J8" s="66" t="s">
+      <c r="J8" s="62" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3504,17 +3506,17 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
+        <v>244</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="J9" s="66" t="s">
+      <c r="J9" s="62" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3532,17 +3534,17 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+        <v>272</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="J10" s="66" t="s">
+      <c r="J10" s="62" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3559,18 +3561,18 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="79" t="s">
-        <v>242</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+      <c r="E11" s="74" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J11" s="66" t="s">
+      <c r="J11" s="62" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3588,17 +3590,17 @@
         <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+        <v>257</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J12" s="66" t="s">
+      <c r="J12" s="62" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3713,20 +3715,20 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="19"/>
+      <c r="E3" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="9"/>
       <c r="I3" s="17">
         <v>34658</v>
       </c>
-      <c r="J3" s="66" t="s">
+      <c r="J3" s="62" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3734,29 +3736,29 @@
       <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>285</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="19"/>
+      <c r="C4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="9"/>
       <c r="I4" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="66" t="s">
+      <c r="J4" s="62" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3773,20 +3775,20 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="66" t="s">
+      <c r="E5" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="62" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3803,20 +3805,20 @@
       <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="66" t="s">
+      <c r="E6" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="62" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3833,20 +3835,20 @@
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="19"/>
+      <c r="F7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="9"/>
       <c r="I7" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="66" t="s">
+      <c r="J7" s="62" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3863,20 +3865,20 @@
       <c r="D8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="76" t="s">
-        <v>252</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="H8" s="23"/>
+      <c r="E8" s="72" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="H8" s="21"/>
       <c r="I8" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="J8" s="66" t="s">
+      <c r="J8" s="62" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3893,20 +3895,20 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="76" t="s">
-        <v>286</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="19"/>
+      <c r="E9" s="72" t="s">
+        <v>283</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="17">
         <v>17839</v>
       </c>
-      <c r="J9" s="66" t="s">
+      <c r="J9" s="62" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3923,20 +3925,20 @@
       <c r="D10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="77" t="s">
-        <v>287</v>
-      </c>
-      <c r="F10" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="H10" s="23"/>
+      <c r="E10" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="H10" s="21"/>
       <c r="I10" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="66" t="s">
+      <c r="J10" s="62" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4032,20 +4034,20 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="19"/>
+      <c r="E3" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="9"/>
       <c r="I3" s="18">
         <v>39035</v>
       </c>
-      <c r="J3" s="66" t="s">
+      <c r="J3" s="62" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4053,27 +4055,27 @@
       <c r="A4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>288</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="19"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="9"/>
       <c r="I4" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="J4" s="66" t="s">
+      <c r="J4" s="62" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4090,20 +4092,20 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="19"/>
+      <c r="E5" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="9"/>
       <c r="I5" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="62" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4120,20 +4122,20 @@
       <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="76" t="s">
-        <v>255</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="19"/>
+      <c r="E6" s="72" t="s">
+        <v>252</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="9"/>
       <c r="I6" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="J6" s="66" t="s">
+      <c r="J6" s="62" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4150,20 +4152,20 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="67" t="s">
+      <c r="E7" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="63" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4180,20 +4182,20 @@
       <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="23"/>
+      <c r="E8" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="21"/>
       <c r="I8" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="J8" s="66" t="s">
+      <c r="J8" s="62" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4210,18 +4212,18 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="19"/>
+      <c r="E9" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="66" t="s">
+      <c r="J9" s="62" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4238,20 +4240,20 @@
       <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="66" t="s">
+      <c r="E10" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="62" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4268,20 +4270,20 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="67" t="s">
+      <c r="E11" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="63" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4298,20 +4300,20 @@
       <c r="D12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="67" t="s">
+      <c r="E12" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="63" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4328,20 +4330,20 @@
       <c r="D13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="H13" s="25"/>
+      <c r="E13" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="H13" s="23"/>
       <c r="I13" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="J13" s="66" t="s">
+      <c r="J13" s="62" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4358,20 +4360,20 @@
       <c r="D14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="H14" s="25"/>
+      <c r="E14" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="H14" s="23"/>
       <c r="I14" s="18">
         <v>-1067.700435</v>
       </c>
-      <c r="J14" s="66" t="s">
+      <c r="J14" s="62" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4388,20 +4390,20 @@
       <c r="D15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="66" t="s">
+      <c r="E15" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="62" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4418,26 +4420,26 @@
       <c r="D16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="66" t="s">
+      <c r="E16" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="62" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -4448,50 +4450,50 @@
       <c r="D17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="68" t="s">
-        <v>290</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="83"/>
-      <c r="I17" s="84" t="s">
-        <v>290</v>
-      </c>
-      <c r="J17" s="83"/>
-    </row>
-    <row r="18" spans="1:10" s="53" customFormat="1" ht="36" x14ac:dyDescent="0.3">
-      <c r="A18" s="53" t="s">
+      <c r="E17" s="64" t="s">
+        <v>287</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="78"/>
+      <c r="I17" s="79" t="s">
+        <v>287</v>
+      </c>
+      <c r="J17" s="78"/>
+    </row>
+    <row r="18" spans="1:10" s="51" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+      <c r="A18" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="52" t="s">
         <v>68</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="H18" s="80" t="s">
-        <v>291</v>
-      </c>
-      <c r="I18" s="68" t="s">
+      <c r="D18" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="H18" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="I18" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="66" t="s">
+      <c r="J18" s="62" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4508,18 +4510,18 @@
       <c r="D19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="H19" s="23"/>
+      <c r="E19" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="H19" s="21"/>
       <c r="I19" s="18">
         <v>3703994</v>
       </c>
-      <c r="J19" s="66" t="s">
+      <c r="J19" s="62" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4536,20 +4538,20 @@
       <c r="D20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="19"/>
+      <c r="E20" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="9"/>
       <c r="I20" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="J20" s="67" t="s">
+      <c r="J20" s="63" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4566,20 +4568,20 @@
       <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="60" t="s">
-        <v>257</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="H21" s="19"/>
+      <c r="E21" s="56" t="s">
+        <v>254</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="H21" s="9"/>
       <c r="I21" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="J21" s="66" t="s">
+      <c r="J21" s="62" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4596,20 +4598,20 @@
       <c r="D22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="19"/>
+      <c r="E22" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="9"/>
       <c r="I22" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="J22" s="66" t="s">
+      <c r="J22" s="62" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4626,20 +4628,20 @@
       <c r="D23" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="67" t="s">
+      <c r="E23" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="63" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4656,8 +4658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4714,243 +4716,243 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+    <row r="3" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="68">
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="64">
         <v>50004</v>
       </c>
-      <c r="J3" s="66" t="s">
+      <c r="J3" s="62" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="s">
+    <row r="4" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="57" t="s">
+      <c r="C4" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="68">
+      <c r="E4" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="64">
         <v>43</v>
       </c>
-      <c r="J4" s="66" t="s">
+      <c r="J4" s="62" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
+    <row r="5" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="57" t="s">
+      <c r="C5" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="68">
+      <c r="E5" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="64">
         <v>1</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="62" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+    <row r="6" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="57" t="s">
+      <c r="C6" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="68">
+      <c r="E6" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="64">
         <v>39035</v>
       </c>
-      <c r="J6" s="66" t="s">
+      <c r="J6" s="62" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
+    <row r="7" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="57" t="s">
+      <c r="C7" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="68">
+      <c r="E7" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="64">
         <v>63</v>
       </c>
-      <c r="J7" s="66" t="s">
+      <c r="J7" s="62" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="53" t="s">
+    <row r="8" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="57" t="s">
+      <c r="C8" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="68">
+      <c r="E8" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="64">
         <v>371091</v>
       </c>
-      <c r="J8" s="66" t="s">
+      <c r="J8" s="62" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="53" t="s">
-        <v>305</v>
-      </c>
-      <c r="B9" s="54" t="s">
+    <row r="9" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="B9" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="93" t="s">
-        <v>306</v>
-      </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="66"/>
-    </row>
-    <row r="10" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="53" t="s">
+      <c r="C9" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="62"/>
+    </row>
+    <row r="10" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="60" t="s">
-        <v>302</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="66" t="s">
+      <c r="C10" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="62" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4967,22 +4969,22 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="60" t="s">
-        <v>304</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="66" t="s">
+      <c r="E11" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="62" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5000,21 +5002,21 @@
         <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="62" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5031,22 +5033,22 @@
       <c r="D13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="61" t="s">
-        <v>303</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="66" t="s">
+      <c r="E13" s="57" t="s">
+        <v>300</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="62" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5054,67 +5056,67 @@
       <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>293</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="66" t="s">
+      <c r="C14" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="62" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="53" t="s">
+    <row r="15" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="68">
+      <c r="E15" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="64">
         <v>5363</v>
       </c>
-      <c r="J15" s="66" t="s">
+      <c r="J15" s="62" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>94</v>
       </c>
@@ -5127,26 +5129,26 @@
       <c r="D16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="70" t="s">
+      <c r="E16" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="66" t="s">
         <v>38</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J16" s="67" t="s">
+      <c r="J16" s="63" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>93</v>
       </c>
@@ -5159,54 +5161,54 @@
       <c r="D17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="70" t="s">
+      <c r="E17" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="66" t="s">
         <v>38</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J17" s="67" t="s">
+      <c r="J17" s="63" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="39" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="53" t="s">
+    <row r="18" spans="1:10" s="37" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="76" t="s">
-        <v>255</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="68" t="s">
+      <c r="E18" s="72" t="s">
+        <v>252</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="J18" s="66" t="s">
+      <c r="J18" s="62" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5223,22 +5225,22 @@
       <c r="D19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="70" t="s">
+      <c r="E19" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="66" t="s">
         <v>38</v>
       </c>
       <c r="I19" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="67" t="s">
+      <c r="J19" s="63" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5255,26 +5257,26 @@
       <c r="D20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="70" t="s">
+      <c r="E20" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="66" t="s">
         <v>38</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="J20" s="66" t="s">
+      <c r="J20" s="62" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>88</v>
       </c>
@@ -5287,22 +5289,22 @@
       <c r="D21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="50" t="s">
-        <v>301</v>
-      </c>
-      <c r="H21" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="67" t="s">
+      <c r="E21" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="H21" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="63" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5319,54 +5321,54 @@
       <c r="D22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="70" t="s">
+      <c r="E22" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="66" t="s">
         <v>38</v>
       </c>
       <c r="I22" s="18">
         <v>5200</v>
       </c>
-      <c r="J22" s="66" t="s">
+      <c r="J22" s="62" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="85" t="s">
-        <v>294</v>
-      </c>
-      <c r="B23" s="54" t="s">
+    <row r="23" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="B23" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="H23" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="87">
+      <c r="D23" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="H23" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="82">
         <v>1</v>
       </c>
-      <c r="J23" s="88" t="s">
+      <c r="J23" s="83" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5383,22 +5385,22 @@
       <c r="D24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="70" t="s">
+      <c r="E24" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="66" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="J24" s="66" t="s">
+      <c r="J24" s="62" t="s">
         <v>234</v>
       </c>
     </row>
@@ -5415,22 +5417,22 @@
       <c r="D25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="H25" s="70" t="s">
+      <c r="E25" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="H25" s="66" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="J25" s="66" t="s">
+      <c r="J25" s="62" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5447,20 +5449,20 @@
       <c r="D26" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="63" t="s">
-        <v>264</v>
-      </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="H26" s="70" t="s">
+      <c r="E26" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="F26" s="34"/>
+      <c r="G26" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="H26" s="66" t="s">
         <v>38</v>
       </c>
       <c r="I26" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J26" s="66" t="s">
+      <c r="J26" s="62" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5471,32 +5473,32 @@
       <c r="B27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="H27" s="70" t="s">
+      <c r="E27" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="H27" s="66" t="s">
         <v>38</v>
       </c>
       <c r="I27" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="J27" s="66" t="s">
+      <c r="J27" s="62" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="39" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="37" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>153</v>
       </c>
@@ -5509,22 +5511,22 @@
       <c r="D28" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28" s="66" t="s">
+      <c r="E28" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="62" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5541,22 +5543,22 @@
       <c r="D29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="F29" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="H29" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="71">
+      <c r="E29" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="H29" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="67">
         <v>44196</v>
       </c>
-      <c r="J29" s="66" t="s">
+      <c r="J29" s="62" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5573,22 +5575,22 @@
       <c r="D30" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="F30" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="H30" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="71">
+      <c r="E30" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="H30" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="67">
         <v>43831</v>
       </c>
-      <c r="J30" s="66" t="s">
+      <c r="J30" s="62" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5605,54 +5607,54 @@
       <c r="D31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="65" t="s">
-        <v>281</v>
-      </c>
-      <c r="F31" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="H31" s="70" t="s">
+      <c r="E31" s="61" t="s">
+        <v>278</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="H31" s="66" t="s">
         <v>38</v>
       </c>
       <c r="I31" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J31" s="67" t="s">
+      <c r="J31" s="63" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="85" t="s">
-        <v>295</v>
-      </c>
-      <c r="B32" s="54" t="s">
+    <row r="32" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="80" t="s">
+        <v>292</v>
+      </c>
+      <c r="B32" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="H32" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="87">
+      <c r="D32" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="H32" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="82">
         <v>0</v>
       </c>
-      <c r="J32" s="88" t="s">
+      <c r="J32" s="83" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5663,28 +5665,28 @@
       <c r="B33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="H33" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I33" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="J33" s="66" t="s">
+      <c r="E33" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="H33" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="62" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5701,22 +5703,22 @@
       <c r="D34" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="F34" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="70" t="s">
+      <c r="E34" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="66" t="s">
         <v>38</v>
       </c>
       <c r="I34" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="67" t="s">
+      <c r="J34" s="63" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5733,26 +5735,26 @@
       <c r="D35" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="F35" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="70" t="s">
+      <c r="E35" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="66" t="s">
         <v>38</v>
       </c>
       <c r="I35" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J35" s="66" t="s">
+      <c r="J35" s="62" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="53" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" s="51" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>100</v>
       </c>
@@ -5765,54 +5767,54 @@
       <c r="D36" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="F36" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" s="70" t="s">
+      <c r="E36" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="66" t="s">
         <v>38</v>
       </c>
       <c r="I36" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J36" s="66" t="s">
+      <c r="J36" s="62" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="92">
+      <c r="C37" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="87">
         <v>44649</v>
       </c>
-      <c r="F37" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="72">
+      <c r="F37" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="68">
         <v>43874</v>
       </c>
-      <c r="J37" s="66" t="s">
+      <c r="J37" s="62" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5829,50 +5831,50 @@
       <c r="D38" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="F38" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38" s="73">
+      <c r="E38" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="69">
         <v>33187</v>
       </c>
-      <c r="J38" s="67" t="s">
+      <c r="J38" s="63" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="85" t="s">
-        <v>296</v>
-      </c>
-      <c r="B39" s="54" t="s">
-        <v>297</v>
-      </c>
-      <c r="C39" s="55" t="s">
+    <row r="39" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="80" t="s">
+        <v>293</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="C39" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="36">
+      <c r="D39" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="34">
         <v>0</v>
       </c>
-      <c r="F39" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="86"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="90"/>
+      <c r="F39" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="81"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="85"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
@@ -5887,22 +5889,22 @@
       <c r="D40" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="F40" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I40" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="J40" s="66" t="s">
+      <c r="E40" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="62" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5919,20 +5921,20 @@
       <c r="D41" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="F41" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" s="78"/>
-      <c r="I41" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="J41" s="66" t="s">
+      <c r="E41" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="73"/>
+      <c r="I41" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="62" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5949,22 +5951,22 @@
       <c r="D42" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="F42" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G42" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H42" s="70" t="s">
+      <c r="E42" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="66" t="s">
         <v>38</v>
       </c>
       <c r="I42" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J42" s="66" t="s">
+      <c r="J42" s="62" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5981,28 +5983,28 @@
       <c r="D43" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="F43" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="J43" s="67" t="s">
+      <c r="E43" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="63" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>34</v>
@@ -6013,23 +6015,23 @@
       <c r="D44" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="91" t="s">
-        <v>298</v>
-      </c>
-      <c r="F44" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="70" t="s">
-        <v>283</v>
-      </c>
-      <c r="J44" s="66" t="s">
-        <v>284</v>
+      <c r="E44" s="86" t="s">
+        <v>295</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="J44" s="62" t="s">
+        <v>281</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -6051,26 +6053,26 @@
       <c r="D45" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="F45" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="J45" s="66" t="s">
+      <c r="E45" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="62" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>102</v>
       </c>
@@ -6083,54 +6085,54 @@
       <c r="D46" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="F46" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="70" t="s">
+      <c r="E46" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="66" t="s">
         <v>38</v>
       </c>
       <c r="I46" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J46" s="67" t="s">
+      <c r="J46" s="63" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="53" t="s">
-        <v>307</v>
-      </c>
-      <c r="B47" s="54" t="s">
+      <c r="A47" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="B47" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="55" t="s">
+      <c r="C47" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="57" t="s">
+      <c r="D47" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="F47" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H47" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I47" s="68" t="s">
+      <c r="E47" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="J47" s="66" t="s">
+      <c r="J47" s="62" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6147,22 +6149,22 @@
       <c r="D48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F48" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="G48" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="H48" s="70" t="s">
+      <c r="E48" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="H48" s="66" t="s">
         <v>38</v>
       </c>
       <c r="I48" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J48" s="66" t="s">
+      <c r="J48" s="62" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6187,34 +6189,34 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
-        <v>280</v>
-      </c>
-      <c r="B1" s="64"/>
+      <c r="A1" s="76" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="60"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="64"/>
-      <c r="B7" s="64"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
